--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1162944.636850898</v>
+        <v>-1165644.528972123</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>378.7005903963534</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>174.0031878433442</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2263647633992605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>100.0277346964673</v>
+        <v>160.6945675046721</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>133.0701643866099</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>141.0324702866451</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>106.2734156401336</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>86.44318659143588</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -1111,16 +1111,16 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8981447741283409</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>20.34285048055084</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12.75075625333718</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>248.0602790426483</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.9137656008625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>164.7131308010989</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89996056624759</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>187.2551470558694</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>72.6041077643461</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>136.5078095423588</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652685</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1476.530914831369</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="C2" t="n">
-        <v>1107.568397890957</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="D2" t="n">
-        <v>749.3026992842067</v>
+        <v>940.5036772388974</v>
       </c>
       <c r="E2" t="n">
-        <v>363.5144466859625</v>
+        <v>940.5036772388974</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5144466859625</v>
+        <v>529.5177724492899</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>608.5986938974692</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>846.2214751156594</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1142.29204167326</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1447.767147908844</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1968.860256443063</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2414.231970339628</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2160.591108721214</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1829.528221377644</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1476.75956610753</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1476.75956610753</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1476.530914831369</v>
+        <v>1298.769375845648</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072345</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>900.09141451049</v>
+        <v>794.7800573025152</v>
       </c>
       <c r="M3" t="n">
-        <v>1164.030946005978</v>
+        <v>1058.719588798001</v>
       </c>
       <c r="N3" t="n">
-        <v>1449.364816439311</v>
+        <v>1344.053459231333</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>536.9709042399959</v>
+        <v>631.4778434719254</v>
       </c>
       <c r="C4" t="n">
-        <v>368.0347213120889</v>
+        <v>462.5416605440186</v>
       </c>
       <c r="D4" t="n">
-        <v>368.0347213120889</v>
+        <v>462.5416605440186</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>314.6285669616254</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136561</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1086.791150136561</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>985.7530342815434</v>
+        <v>1148.884564406903</v>
       </c>
       <c r="W4" t="n">
-        <v>985.7530342815434</v>
+        <v>859.4673943699428</v>
       </c>
       <c r="X4" t="n">
-        <v>757.763483383526</v>
+        <v>631.4778434719254</v>
       </c>
       <c r="Y4" t="n">
-        <v>536.9709042399959</v>
+        <v>631.4778434719254</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1371.147607980268</v>
+        <v>1605.695817459457</v>
       </c>
       <c r="C5" t="n">
-        <v>1371.147607980268</v>
+        <v>1236.733300519046</v>
       </c>
       <c r="D5" t="n">
-        <v>1012.881909373517</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="E5" t="n">
-        <v>1012.881909373517</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F5" t="n">
-        <v>601.8960045839099</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>186.2141627840418</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4565,13 +4565,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4583,7 +4583,7 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2323.35854486715</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2323.35854486715</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>1992.295657523579</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.752698217159</v>
+        <v>1992.295657523579</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.28693995608</v>
+        <v>1992.295657523579</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.147607980268</v>
+        <v>1992.295657523579</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4647,25 +4647,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291482</v>
+        <v>788.8134803644004</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1155.119369856726</v>
       </c>
       <c r="N6" t="n">
-        <v>1480.804272147216</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.0598333901963</v>
+        <v>433.9192464954826</v>
       </c>
       <c r="C7" t="n">
-        <v>199.7129489052128</v>
+        <v>433.9192464954826</v>
       </c>
       <c r="D7" t="n">
-        <v>199.7129489052128</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
         <v>51.79985532281972</v>
@@ -4723,25 +4723,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452885</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463283</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>778.1254682573966</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W7" t="n">
-        <v>488.708298220436</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="X7" t="n">
-        <v>488.708298220436</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="Y7" t="n">
-        <v>488.708298220436</v>
+        <v>615.5677113257224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.292134486497</v>
+        <v>2360.799072781075</v>
       </c>
       <c r="C8" t="n">
-        <v>1182.292134486497</v>
+        <v>1991.836555840663</v>
       </c>
       <c r="D8" t="n">
-        <v>1182.292134486497</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2256.263009075994</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>1925.200121732423</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.431466462309</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="X8" t="n">
-        <v>1572.431466462309</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="Y8" t="n">
-        <v>1182.292134486497</v>
+        <v>2360.799072781075</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>491.5015312480865</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803644011</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856727</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182469</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611898</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.598365670131</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="C10" t="n">
-        <v>529.6621827422241</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="D10" t="n">
-        <v>379.5455433298883</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003707</v>
+        <v>977.0334912749104</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2468305003707</v>
+        <v>977.0334912749104</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2468305003707</v>
+        <v>749.043940376893</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2468305003707</v>
+        <v>528.2513612333629</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5027,10 +5027,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5130,10 +5130,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>548.795341502774</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>401.9053940048636</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647277</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>481.447947124485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>333.5348535420919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>186.6449060441816</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2190.770766644916</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949674</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.917939501689</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>920.9817565737817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>770.8651171614459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>622.9520235790528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>476.0620760811424</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>308.8659767960224</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>167.1541456382205</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.348534373476</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.358983475458</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.566404331928</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.03070352725</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.429238550191</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.354011894389</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.669523688502</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>402.7245934908939</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.373419438403</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7324,13 +7324,13 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7546,22 +7546,22 @@
         <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,7 +7606,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656808</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150014</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580106</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>248.4615042601887</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.3850817401787</v>
+        <v>248.76019003107</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>65.37844346995143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>148.4266296017855</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>65.37844346995249</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>328.5749157939488</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>33.58714829869075</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.0115738926543</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.91821458107484</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.811007491169903</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922677</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3947522799763</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>30.15030327142037</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>8.661728554219437</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>44.51847645928578</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1066087.733042673</v>
+        <v>1066087.733042674</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1236388.060212371</v>
+        <v>1236388.06021237</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1236388.060212371</v>
+        <v>1236388.06021237</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1236388.060212371</v>
+        <v>1236388.06021237</v>
       </c>
     </row>
     <row r="9">
@@ -26314,16 +26314,16 @@
         <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="F2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="F2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
         <v>181607.9849302513</v>
@@ -26332,13 +26332,13 @@
         <v>181607.9849302513</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302512</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26347,13 +26347,13 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898954</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802232</v>
+        <v>77576.42687802279</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695063</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
+        <v>14278.33979478855</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14278.33979478853</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14278.33979478858</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478851</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14278.33979478851</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14278.33979478852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478853</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954277.5108455223</v>
+        <v>-954637.5938612373</v>
       </c>
       <c r="C6" t="n">
-        <v>-210577.8056571861</v>
+        <v>-210577.8056571891</v>
       </c>
       <c r="D6" t="n">
-        <v>-37813.44586729369</v>
+        <v>-37813.44586729353</v>
       </c>
       <c r="E6" t="n">
-        <v>-426690.8931711016</v>
+        <v>-426725.6310965372</v>
       </c>
       <c r="F6" t="n">
-        <v>74197.97457464923</v>
+        <v>74163.2366492135</v>
       </c>
       <c r="G6" t="n">
-        <v>74197.97457464914</v>
+        <v>74163.23664921348</v>
       </c>
       <c r="H6" t="n">
-        <v>74197.97457464917</v>
+        <v>74163.23664921342</v>
       </c>
       <c r="I6" t="n">
-        <v>74197.97457464911</v>
+        <v>74163.23664921318</v>
       </c>
       <c r="J6" t="n">
-        <v>-95216.04225139893</v>
+        <v>-95250.78017683445</v>
       </c>
       <c r="K6" t="n">
-        <v>74197.97457464923</v>
+        <v>74163.23664921348</v>
       </c>
       <c r="L6" t="n">
-        <v>47864.2245771279</v>
+        <v>47864.22457712778</v>
       </c>
       <c r="M6" t="n">
-        <v>-63592.51433347553</v>
+        <v>-63592.51433347549</v>
       </c>
       <c r="N6" t="n">
-        <v>67291.9425707598</v>
+        <v>67291.94257075967</v>
       </c>
       <c r="O6" t="n">
-        <v>67291.94257075977</v>
+        <v>67291.94257075974</v>
       </c>
       <c r="P6" t="n">
-        <v>67291.94257075974</v>
+        <v>67291.94257075971</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>53.35545427831295</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>35.8945043858393</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>152.1099086273607</v>
+        <v>91.44307581915587</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>167.7161228618499</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>65.52643565911566</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>60.97340545849418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>62.17228642677648</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1452910030469</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>365.8950881755027</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>133.683206393232</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28059,25 +28059,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.07736428117974</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>487.5747176873202</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>526.3566752870902</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6022047214503</v>
+        <v>489.9773130123399</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342481</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>365.6935435874411</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>486.7384283043422</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530876</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>253.9254024630966</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35267,10 +35267,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
